--- a/WebClient/wwwroot/Template/SampleImportSubject.xlsx
+++ b/WebClient/wwwroot/Template/SampleImportSubject.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DoAn\SEP490_G47_Exam_Review\WebClient\wwwroot\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38237B60-709B-442C-88CF-6BF0D76B2294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B862AC3-2ACD-4BA7-900D-4CCAB5F99038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C6E4B603-8487-45C9-A29B-A37C43534240}"/>
   </bookViews>
@@ -34,18 +34,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>SubjectCode</t>
-  </si>
-  <si>
-    <t>SubjectName</t>
-  </si>
-  <si>
-    <t>Math</t>
-  </si>
-  <si>
-    <t>toán123</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+  <si>
+    <t>Số thứ tự</t>
+  </si>
+  <si>
+    <t>Mã Môn</t>
+  </si>
+  <si>
+    <t>Tên Môn</t>
+  </si>
+  <si>
+    <t>Tên Khoa</t>
+  </si>
+  <si>
+    <t>ADY201m</t>
+  </si>
+  <si>
+    <t>Data Science with Python &amp; SQL</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>AID301c</t>
+  </si>
+  <si>
+    <t>AI in Production</t>
   </si>
 </sst>
 </file>
@@ -397,28 +412,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8673F430-4640-41B7-B667-36C0F3A78889}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="26.77734375" customWidth="1"/>
+    <col min="4" max="4" width="43.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
